--- a/MediaVoto/FantaMedia_Squadre.xlsx
+++ b/MediaVoto/FantaMedia_Squadre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Giornata 1</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Giornata 7</t>
+  </si>
+  <si>
+    <t>Giornata 8</t>
   </si>
   <si>
     <t xml:space="preserve">Total average </t>
@@ -458,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -492,10 +495,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -519,12 +525,15 @@
         <v>6.166666666666667</v>
       </c>
       <c r="I2">
-        <v>6.003434065934066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>5.785714285714286</v>
+      </c>
+      <c r="J2">
+        <v>5.976219093406593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -548,12 +557,15 @@
         <v>5.208333333333333</v>
       </c>
       <c r="I3">
-        <v>5.766781135531136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>6.615384615384615</v>
+      </c>
+      <c r="J3">
+        <v>5.872856570512821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5.576923076923077</v>
@@ -577,12 +589,15 @@
         <v>5.615384615384615</v>
       </c>
       <c r="I4">
-        <v>5.955311355311356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>6.576923076923077</v>
+      </c>
+      <c r="J4">
+        <v>6.033012820512822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>6.166666666666667</v>
@@ -606,12 +621,15 @@
         <v>6.25</v>
       </c>
       <c r="I5">
-        <v>6.054029304029305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>5.5</v>
+      </c>
+      <c r="J5">
+        <v>5.984775641025641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>5.428571428571429</v>
@@ -635,12 +653,15 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>5.820643642072214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>5.692307692307693</v>
+      </c>
+      <c r="J6">
+        <v>5.804601648351649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>6.590909090909091</v>
@@ -664,12 +685,15 @@
         <v>6.041666666666667</v>
       </c>
       <c r="I7">
-        <v>5.906223538366396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="J7">
+        <v>5.834612262737263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>6.230769230769231</v>
@@ -693,12 +717,15 @@
         <v>5.7</v>
       </c>
       <c r="I8">
-        <v>5.791300366300367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>5.642857142857143</v>
+      </c>
+      <c r="J8">
+        <v>5.772744963369964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -722,12 +749,15 @@
         <v>5.964285714285714</v>
       </c>
       <c r="I9">
-        <v>5.926970788315326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="J9">
+        <v>5.944432773109243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>6.727272727272728</v>
@@ -751,12 +781,15 @@
         <v>5.923076923076923</v>
       </c>
       <c r="I10">
-        <v>6.118417296988726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>6.576923076923077</v>
+      </c>
+      <c r="J10">
+        <v>6.175730519480521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -780,12 +813,15 @@
         <v>5.875</v>
       </c>
       <c r="I11">
-        <v>5.933503401360544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>6.428571428571429</v>
+      </c>
+      <c r="J11">
+        <v>5.995386904761904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>6.607142857142857</v>
@@ -809,12 +845,15 @@
         <v>5.923076923076923</v>
       </c>
       <c r="I12">
-        <v>6.257953950811094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>6.730769230769231</v>
+      </c>
+      <c r="J12">
+        <v>6.317055860805861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>6.208333333333333</v>
@@ -838,12 +877,15 @@
         <v>6.318181818181818</v>
       </c>
       <c r="I13">
-        <v>6.274196042053185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>5.730769230769231</v>
+      </c>
+      <c r="J13">
+        <v>6.206267690642691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>5.730769230769231</v>
@@ -867,12 +909,15 @@
         <v>5.692307692307693</v>
       </c>
       <c r="I14">
-        <v>5.87650444793302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>5.071428571428571</v>
+      </c>
+      <c r="J14">
+        <v>5.775869963369964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -896,12 +941,15 @@
         <v>6.423076923076923</v>
       </c>
       <c r="I15">
-        <v>6.255756148613291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="J15">
+        <v>6.327953296703297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>5.53125</v>
@@ -925,12 +973,15 @@
         <v>5.416666666666667</v>
       </c>
       <c r="I16">
-        <v>6.071130952380952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>5.576923076923077</v>
+      </c>
+      <c r="J16">
+        <v>6.009354967948717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>6.133333333333334</v>
@@ -954,12 +1005,15 @@
         <v>5.807692307692307</v>
       </c>
       <c r="I17">
-        <v>6.117765567765567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>6.0625</v>
+      </c>
+      <c r="J17">
+        <v>6.110857371794872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -983,12 +1037,15 @@
         <v>6.541666666666667</v>
       </c>
       <c r="I18">
-        <v>5.871598639455782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="J18">
+        <v>5.908482142857142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>5.692307692307693</v>
@@ -1012,12 +1069,15 @@
         <v>5.666666666666667</v>
       </c>
       <c r="I19">
-        <v>5.76380167451596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>5.793326465201465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1041,12 +1101,15 @@
         <v>6.25</v>
       </c>
       <c r="I20">
-        <v>5.913657770800627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>6.307692307692307</v>
+      </c>
+      <c r="J20">
+        <v>5.962912087912088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>6.1</v>
@@ -1070,7 +1133,10 @@
         <v>6.035714285714286</v>
       </c>
       <c r="I21">
-        <v>6.132482993197279</v>
+        <v>6.033333333333333</v>
+      </c>
+      <c r="J21">
+        <v>6.120089285714285</v>
       </c>
     </row>
   </sheetData>

--- a/MediaVoto/FantaMedia_Squadre.xlsx
+++ b/MediaVoto/FantaMedia_Squadre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Giornata 1</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>Giornata 8</t>
+  </si>
+  <si>
+    <t>Giornata 9</t>
+  </si>
+  <si>
+    <t>Giornata 10</t>
+  </si>
+  <si>
+    <t>Giornata 11</t>
+  </si>
+  <si>
+    <t>Giornata 12</t>
+  </si>
+  <si>
+    <t>Giornata 13</t>
+  </si>
+  <si>
+    <t>Giornata 14</t>
   </si>
   <si>
     <t xml:space="preserve">Total average </t>
@@ -461,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -498,10 +516,28 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -528,12 +564,27 @@
         <v>5.785714285714286</v>
       </c>
       <c r="J2">
-        <v>5.976219093406593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>5.633333333333334</v>
+      </c>
+      <c r="L2">
+        <v>6.615384615384615</v>
+      </c>
+      <c r="M2">
+        <v>6.428571428571429</v>
+      </c>
+      <c r="N2">
+        <v>6.714285714285714</v>
+      </c>
+      <c r="O2">
+        <v>6.178571428571429</v>
+      </c>
+      <c r="P2">
+        <v>6.106146097492251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -560,12 +611,30 @@
         <v>6.615384615384615</v>
       </c>
       <c r="J3">
-        <v>5.872856570512821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>6.15625</v>
+      </c>
+      <c r="K3">
+        <v>5.75</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>6.071428571428571</v>
+      </c>
+      <c r="N3">
+        <v>6.178571428571429</v>
+      </c>
+      <c r="O3">
+        <v>6.46875</v>
+      </c>
+      <c r="P3">
+        <v>5.971989468864469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5.576923076923077</v>
@@ -592,12 +661,30 @@
         <v>6.576923076923077</v>
       </c>
       <c r="J4">
-        <v>6.033012820512822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>6.153846153846154</v>
+      </c>
+      <c r="K4">
+        <v>5.615384615384615</v>
+      </c>
+      <c r="L4">
+        <v>4.75</v>
+      </c>
+      <c r="M4">
+        <v>5.875</v>
+      </c>
+      <c r="N4">
+        <v>5.807692307692307</v>
+      </c>
+      <c r="O4">
+        <v>6.071428571428571</v>
+      </c>
+      <c r="P4">
+        <v>5.895532443746729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>6.166666666666667</v>
@@ -624,12 +711,30 @@
         <v>5.5</v>
       </c>
       <c r="J5">
-        <v>5.984775641025641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>5.961538461538462</v>
+      </c>
+      <c r="K5">
+        <v>6.045454545454546</v>
+      </c>
+      <c r="L5">
+        <v>5.678571428571429</v>
+      </c>
+      <c r="M5">
+        <v>5.961538461538462</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>5.923076923076923</v>
+      </c>
+      <c r="P5">
+        <v>5.96059892488464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>5.428571428571429</v>
@@ -656,12 +761,30 @@
         <v>5.692307692307693</v>
       </c>
       <c r="J6">
-        <v>5.804601648351649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>5.866666666666666</v>
+      </c>
+      <c r="K6">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="L6">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="M6">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.730769230769231</v>
+      </c>
+      <c r="O6">
+        <v>6.269230769230769</v>
+      </c>
+      <c r="P6">
+        <v>5.849058084772371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>6.590909090909091</v>
@@ -688,12 +811,30 @@
         <v>5.333333333333333</v>
       </c>
       <c r="J7">
-        <v>5.834612262737263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
+        <v>5.692307692307693</v>
+      </c>
+      <c r="L7">
+        <v>5.5</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>5.964285714285714</v>
+      </c>
+      <c r="O7">
+        <v>7.038461538461538</v>
+      </c>
+      <c r="P7">
+        <v>5.883710931925217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>6.230769230769231</v>
@@ -720,12 +861,30 @@
         <v>5.642857142857143</v>
       </c>
       <c r="J8">
-        <v>5.772744963369964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>5.615384615384615</v>
+      </c>
+      <c r="K8">
+        <v>5.84375</v>
+      </c>
+      <c r="L8">
+        <v>5.642857142857143</v>
+      </c>
+      <c r="M8">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="N8">
+        <v>5.5</v>
+      </c>
+      <c r="O8">
+        <v>6.3</v>
+      </c>
+      <c r="P8">
+        <v>5.801914900575615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -752,12 +911,30 @@
         <v>6.066666666666666</v>
       </c>
       <c r="J9">
-        <v>5.944432773109243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>6.772727272727272</v>
+      </c>
+      <c r="K9">
+        <v>6.428571428571429</v>
+      </c>
+      <c r="L9">
+        <v>6.03125</v>
+      </c>
+      <c r="M9">
+        <v>6.076923076923077</v>
+      </c>
+      <c r="N9">
+        <v>6.076923076923077</v>
+      </c>
+      <c r="O9">
+        <v>6.041666666666667</v>
+      </c>
+      <c r="P9">
+        <v>6.070251693334678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>6.727272727272728</v>
@@ -784,12 +961,30 @@
         <v>6.576923076923077</v>
       </c>
       <c r="J10">
-        <v>6.175730519480521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>5.535714285714286</v>
+      </c>
+      <c r="K10">
+        <v>5.892857142857143</v>
+      </c>
+      <c r="L10">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="M10">
+        <v>6.153846153846154</v>
+      </c>
+      <c r="N10">
+        <v>6.892857142857143</v>
+      </c>
+      <c r="O10">
+        <v>5.25</v>
+      </c>
+      <c r="P10">
+        <v>6.101627539127541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -816,12 +1011,30 @@
         <v>6.428571428571429</v>
       </c>
       <c r="J11">
-        <v>5.995386904761904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="L11">
+        <v>5.59375</v>
+      </c>
+      <c r="M11">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="N11">
+        <v>6.375</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>5.921322278911563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>6.607142857142857</v>
@@ -848,12 +1061,30 @@
         <v>6.730769230769231</v>
       </c>
       <c r="J12">
-        <v>6.317055860805861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>6.5</v>
+      </c>
+      <c r="K12">
+        <v>6.192307692307693</v>
+      </c>
+      <c r="L12">
+        <v>5.807692307692307</v>
+      </c>
+      <c r="M12">
+        <v>5.807692307692307</v>
+      </c>
+      <c r="N12">
+        <v>6.607142857142857</v>
+      </c>
+      <c r="O12">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="P12">
+        <v>6.270329670329671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>6.208333333333333</v>
@@ -880,12 +1111,30 @@
         <v>5.730769230769231</v>
       </c>
       <c r="J13">
-        <v>6.206267690642691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>6.791666666666667</v>
+      </c>
+      <c r="K13">
+        <v>6.541666666666667</v>
+      </c>
+      <c r="L13">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M13">
+        <v>5.884615384615385</v>
+      </c>
+      <c r="N13">
+        <v>5.133333333333334</v>
+      </c>
+      <c r="O13">
+        <v>5.5625</v>
+      </c>
+      <c r="P13">
+        <v>6.114089779268352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>5.730769230769231</v>
@@ -912,12 +1161,30 @@
         <v>5.071428571428571</v>
       </c>
       <c r="J14">
-        <v>5.775869963369964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="K14">
+        <v>5.5</v>
+      </c>
+      <c r="L14">
+        <v>6.115384615384615</v>
+      </c>
+      <c r="M14">
+        <v>5.875</v>
+      </c>
+      <c r="N14">
+        <v>5.1</v>
+      </c>
+      <c r="O14">
+        <v>5.6</v>
+      </c>
+      <c r="P14">
+        <v>5.752191261119831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -944,12 +1211,30 @@
         <v>6.833333333333333</v>
       </c>
       <c r="J15">
-        <v>6.327953296703297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>4.964285714285714</v>
+      </c>
+      <c r="K15">
+        <v>5.909090909090909</v>
+      </c>
+      <c r="L15">
+        <v>6.615384615384615</v>
+      </c>
+      <c r="M15">
+        <v>6.0625</v>
+      </c>
+      <c r="N15">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="O15">
+        <v>6.125</v>
+      </c>
+      <c r="P15">
+        <v>6.122611019932449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>5.53125</v>
@@ -976,12 +1261,30 @@
         <v>5.576923076923077</v>
       </c>
       <c r="J16">
-        <v>6.009354967948717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>5.966666666666667</v>
+      </c>
+      <c r="K16">
+        <v>5.8</v>
+      </c>
+      <c r="L16">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M16">
+        <v>6.269230769230769</v>
+      </c>
+      <c r="N16">
+        <v>6.576923076923077</v>
+      </c>
+      <c r="O16">
+        <v>5.8</v>
+      </c>
+      <c r="P16">
+        <v>6.022928113553113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>6.133333333333334</v>
@@ -1008,12 +1311,30 @@
         <v>6.0625</v>
       </c>
       <c r="J17">
-        <v>6.110857371794872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>5.375</v>
+      </c>
+      <c r="K17">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="L17">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="M17">
+        <v>6.269230769230769</v>
+      </c>
+      <c r="N17">
+        <v>5.8</v>
+      </c>
+      <c r="O17">
+        <v>6.214285714285714</v>
+      </c>
+      <c r="P17">
+        <v>6.01854722658294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1040,12 +1361,30 @@
         <v>6.166666666666667</v>
       </c>
       <c r="J18">
-        <v>5.908482142857142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="K18">
+        <v>5.821428571428571</v>
+      </c>
+      <c r="L18">
+        <v>5.5</v>
+      </c>
+      <c r="M18">
+        <v>5.964285714285714</v>
+      </c>
+      <c r="N18">
+        <v>5.964285714285714</v>
+      </c>
+      <c r="O18">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="P18">
+        <v>5.882568027210882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>5.692307692307693</v>
@@ -1072,12 +1411,30 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>5.793326465201465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>6.038461538461538</v>
+      </c>
+      <c r="K19">
+        <v>5.791666666666667</v>
+      </c>
+      <c r="L19">
+        <v>5.2</v>
+      </c>
+      <c r="M19">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.769230769230769</v>
+      </c>
+      <c r="O19">
+        <v>6.409090909090909</v>
+      </c>
+      <c r="P19">
+        <v>5.813456781313924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1104,12 +1461,27 @@
         <v>6.307692307692307</v>
       </c>
       <c r="J20">
-        <v>5.962912087912088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>6.642857142857143</v>
+      </c>
+      <c r="L20">
+        <v>6.321428571428571</v>
+      </c>
+      <c r="M20">
+        <v>6.125</v>
+      </c>
+      <c r="N20">
+        <v>6.357142857142857</v>
+      </c>
+      <c r="O20">
+        <v>5.464285714285714</v>
+      </c>
+      <c r="P20">
+        <v>6.047231614539307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>6.1</v>
@@ -1136,7 +1508,25 @@
         <v>6.033333333333333</v>
       </c>
       <c r="J21">
-        <v>6.120089285714285</v>
+        <v>6.53125</v>
+      </c>
+      <c r="K21">
+        <v>5.8</v>
+      </c>
+      <c r="L21">
+        <v>6.307692307692307</v>
+      </c>
+      <c r="M21">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="N21">
+        <v>5.933333333333334</v>
+      </c>
+      <c r="O21">
+        <v>5.78125</v>
+      </c>
+      <c r="P21">
+        <v>6.062921899529043</v>
       </c>
     </row>
   </sheetData>
